--- a/WindowsFormsApp2/bin/x64/Debug/cSharpProje.xlsx
+++ b/WindowsFormsApp2/bin/x64/Debug/cSharpProje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ertu\Desktop\Proje\WindowsFormsApp2\bin\x64\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1A1F4D-80AF-40E8-919E-C2F4F748D613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA87F1-C759-4C1F-85E9-C6E89A3DC31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="14027" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="387" yWindow="387" windowWidth="19200" windowHeight="10026" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kaysor" sheetId="1" r:id="rId1"/>
@@ -31220,7 +31220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -31235,7 +31235,7 @@
     <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>508</v>
       </c>
@@ -31255,7 +31255,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>154326</v>
       </c>
@@ -31275,7 +31275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>154327</v>
       </c>
@@ -31295,7 +31295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>154328</v>
       </c>
@@ -31315,7 +31315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>154329</v>
       </c>
@@ -31335,7 +31335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>154330</v>
       </c>
@@ -31355,7 +31355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>154331</v>
       </c>
@@ -31375,7 +31375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>154332</v>
       </c>
@@ -31395,7 +31395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>154333</v>
       </c>
@@ -31415,7 +31415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>154334</v>
       </c>
@@ -31435,7 +31435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>154335</v>
       </c>
@@ -31455,7 +31455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>154336</v>
       </c>
@@ -31475,7 +31475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>154337</v>
       </c>
@@ -31495,7 +31495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>154338</v>
       </c>
@@ -31515,7 +31515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>154339</v>
       </c>
@@ -31535,7 +31535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>154340</v>
       </c>
@@ -31555,7 +31555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>154341</v>
       </c>
@@ -31575,7 +31575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>154342</v>
       </c>
@@ -31595,7 +31595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>154343</v>
       </c>
@@ -31615,7 +31615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15.35" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>154344</v>
       </c>
@@ -33865,8 +33865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/WindowsFormsApp2/bin/x64/Debug/cSharpProje.xlsx
+++ b/WindowsFormsApp2/bin/x64/Debug/cSharpProje.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ertu\Desktop\Proje\WindowsFormsApp2\bin\x64\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAA87F1-C759-4C1F-85E9-C6E89A3DC31E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA38BE34-00F4-4B96-B16E-AE7A2958D34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="387" yWindow="387" windowWidth="19200" windowHeight="10026" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="387" yWindow="387" windowWidth="19200" windowHeight="10026" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kaysor" sheetId="1" r:id="rId1"/>
     <sheet name="nosifre" sheetId="4" r:id="rId2"/>
     <sheet name="devamsizlik" sheetId="2" r:id="rId3"/>
     <sheet name="dersProgrami" sheetId="3" r:id="rId4"/>
+    <sheet name="Sayfa1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30144,8 +30145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2656983A-CC9D-409B-9FF0-2C311F8C41AA}">
   <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="81" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView topLeftCell="A40" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
@@ -31220,7 +31221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
@@ -33865,7 +33866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -34091,4 +34092,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC094E1-BF07-4839-A949-9999BC38F143}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WindowsFormsApp2/bin/x64/Debug/cSharpProje.xlsx
+++ b/WindowsFormsApp2/bin/x64/Debug/cSharpProje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ertu\Desktop\Proje\WindowsFormsApp2\bin\x64\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA38BE34-00F4-4B96-B16E-AE7A2958D34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258E7611-FBC9-4D3F-A3D1-AA792205B3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="387" yWindow="387" windowWidth="19200" windowHeight="10026" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="387" yWindow="387" windowWidth="19200" windowHeight="10026" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kaysor" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="640">
   <si>
     <t>sira_no</t>
   </si>
@@ -2235,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" zoomScale="66" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K131"/>
+    <sheetView topLeftCell="B102" zoomScale="66" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6171,7 +6171,7 @@
         <v>451</v>
       </c>
       <c r="F84" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>12</v>
@@ -6218,7 +6218,7 @@
         <v>452</v>
       </c>
       <c r="F85" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>12</v>
@@ -6265,7 +6265,7 @@
         <v>453</v>
       </c>
       <c r="F86" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>12</v>
@@ -6312,7 +6312,7 @@
         <v>454</v>
       </c>
       <c r="F87" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>12</v>
@@ -6359,7 +6359,7 @@
         <v>455</v>
       </c>
       <c r="F88" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>12</v>
@@ -6406,7 +6406,7 @@
         <v>456</v>
       </c>
       <c r="F89" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>12</v>
@@ -6453,7 +6453,7 @@
         <v>457</v>
       </c>
       <c r="F90" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>12</v>
@@ -6500,7 +6500,7 @@
         <v>458</v>
       </c>
       <c r="F91" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>12</v>
@@ -6547,7 +6547,7 @@
         <v>459</v>
       </c>
       <c r="F92" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>12</v>
@@ -6594,7 +6594,7 @@
         <v>460</v>
       </c>
       <c r="F93" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>12</v>
@@ -6641,7 +6641,7 @@
         <v>461</v>
       </c>
       <c r="F94" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>12</v>
@@ -6688,7 +6688,7 @@
         <v>462</v>
       </c>
       <c r="F95" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>12</v>
@@ -6735,7 +6735,7 @@
         <v>463</v>
       </c>
       <c r="F96" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>12</v>
@@ -6782,7 +6782,7 @@
         <v>464</v>
       </c>
       <c r="F97" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>12</v>
@@ -6829,7 +6829,7 @@
         <v>465</v>
       </c>
       <c r="F98" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>12</v>
@@ -6876,7 +6876,7 @@
         <v>466</v>
       </c>
       <c r="F99" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>12</v>
@@ -6923,7 +6923,7 @@
         <v>467</v>
       </c>
       <c r="F100" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>12</v>
@@ -6970,7 +6970,7 @@
         <v>468</v>
       </c>
       <c r="F101" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>12</v>
@@ -7017,7 +7017,7 @@
         <v>469</v>
       </c>
       <c r="F102" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>12</v>
@@ -7064,7 +7064,7 @@
         <v>470</v>
       </c>
       <c r="F103" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>12</v>
@@ -7111,7 +7111,7 @@
         <v>471</v>
       </c>
       <c r="F104" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>12</v>
@@ -7158,7 +7158,7 @@
         <v>472</v>
       </c>
       <c r="F105" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>12</v>
@@ -7205,7 +7205,7 @@
         <v>473</v>
       </c>
       <c r="F106" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>12</v>
@@ -7252,7 +7252,7 @@
         <v>474</v>
       </c>
       <c r="F107" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>12</v>
@@ -7299,7 +7299,7 @@
         <v>475</v>
       </c>
       <c r="F108" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>12</v>
@@ -7346,7 +7346,7 @@
         <v>476</v>
       </c>
       <c r="F109" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>12</v>
@@ -7393,7 +7393,7 @@
         <v>477</v>
       </c>
       <c r="F110" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>12</v>
@@ -7440,7 +7440,7 @@
         <v>478</v>
       </c>
       <c r="F111" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>12</v>
@@ -7487,7 +7487,7 @@
         <v>479</v>
       </c>
       <c r="F112" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>12</v>
@@ -7534,7 +7534,7 @@
         <v>480</v>
       </c>
       <c r="F113" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>12</v>
@@ -7581,7 +7581,7 @@
         <v>481</v>
       </c>
       <c r="F114" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>12</v>
@@ -7628,7 +7628,7 @@
         <v>482</v>
       </c>
       <c r="F115" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>12</v>
@@ -7675,7 +7675,7 @@
         <v>483</v>
       </c>
       <c r="F116" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>12</v>
@@ -7722,7 +7722,7 @@
         <v>484</v>
       </c>
       <c r="F117" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>12</v>
@@ -7769,7 +7769,7 @@
         <v>485</v>
       </c>
       <c r="F118" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>12</v>
@@ -7816,7 +7816,7 @@
         <v>486</v>
       </c>
       <c r="F119" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>12</v>
@@ -7863,7 +7863,7 @@
         <v>487</v>
       </c>
       <c r="F120" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>12</v>
@@ -7910,7 +7910,7 @@
         <v>488</v>
       </c>
       <c r="F121" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>12</v>
@@ -7957,7 +7957,7 @@
         <v>489</v>
       </c>
       <c r="F122" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>12</v>
@@ -8004,7 +8004,7 @@
         <v>490</v>
       </c>
       <c r="F123" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>12</v>
@@ -8051,7 +8051,7 @@
         <v>491</v>
       </c>
       <c r="F124" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>12</v>
@@ -8098,7 +8098,7 @@
         <v>492</v>
       </c>
       <c r="F125" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>12</v>
@@ -8145,7 +8145,7 @@
         <v>493</v>
       </c>
       <c r="F126" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>12</v>
@@ -8192,7 +8192,7 @@
         <v>494</v>
       </c>
       <c r="F127" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>12</v>
@@ -8239,7 +8239,7 @@
         <v>495</v>
       </c>
       <c r="F128" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>12</v>
@@ -8286,7 +8286,7 @@
         <v>496</v>
       </c>
       <c r="F129" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>12</v>
@@ -8333,7 +8333,7 @@
         <v>497</v>
       </c>
       <c r="F130" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>12</v>
@@ -8380,7 +8380,7 @@
         <v>498</v>
       </c>
       <c r="F131" s="2">
-        <v>111111111</v>
+        <v>11111111111</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>12</v>
@@ -30143,1067 +30143,1461 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2656983A-CC9D-409B-9FF0-2C311F8C41AA}">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="81" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.35" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>154326</v>
       </c>
       <c r="B2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>154327</v>
       </c>
       <c r="B3" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>154328</v>
       </c>
       <c r="B4" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>154329</v>
       </c>
       <c r="B5" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>154330</v>
       </c>
       <c r="B6" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>154331</v>
       </c>
       <c r="B7" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>154332</v>
       </c>
       <c r="B8" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>154333</v>
       </c>
       <c r="B9" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>154334</v>
       </c>
       <c r="B10" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>154335</v>
       </c>
       <c r="B11" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>154336</v>
       </c>
       <c r="B12" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>154337</v>
       </c>
       <c r="B13" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>154338</v>
       </c>
       <c r="B14" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>154339</v>
       </c>
       <c r="B15" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>154340</v>
       </c>
       <c r="B16" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>154341</v>
       </c>
       <c r="B17" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>154342</v>
       </c>
       <c r="B18" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>154343</v>
       </c>
       <c r="B19" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>154344</v>
       </c>
       <c r="B20" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>154345</v>
       </c>
       <c r="B21" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>154346</v>
       </c>
       <c r="B22" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>154347</v>
       </c>
       <c r="B23" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>154348</v>
       </c>
       <c r="B24" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>154349</v>
       </c>
       <c r="B25" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>154350</v>
       </c>
       <c r="B26" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>154351</v>
       </c>
       <c r="B27" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>154352</v>
       </c>
       <c r="B28" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>154353</v>
       </c>
       <c r="B29" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>154354</v>
       </c>
       <c r="B30" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>154355</v>
       </c>
       <c r="B31" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>154356</v>
       </c>
       <c r="B32" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>154357</v>
       </c>
       <c r="B33" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>154358</v>
       </c>
       <c r="B34" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>154359</v>
       </c>
       <c r="B35" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>154360</v>
       </c>
       <c r="B36" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>154361</v>
       </c>
       <c r="B37" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>154362</v>
       </c>
       <c r="B38" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>154363</v>
       </c>
       <c r="B39" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>154364</v>
       </c>
       <c r="B40" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>154365</v>
       </c>
       <c r="B41" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>154366</v>
       </c>
       <c r="B42" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>154367</v>
       </c>
       <c r="B43" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>154368</v>
       </c>
       <c r="B44" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>154369</v>
       </c>
       <c r="B45" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>154370</v>
       </c>
       <c r="B46" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>154371</v>
       </c>
       <c r="B47" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>154372</v>
       </c>
       <c r="B48" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>154373</v>
       </c>
       <c r="B49" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>154374</v>
       </c>
       <c r="B50" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>154375</v>
       </c>
       <c r="B51" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>154376</v>
       </c>
       <c r="B52" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>154377</v>
       </c>
       <c r="B53" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>154378</v>
       </c>
       <c r="B54" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>154379</v>
       </c>
       <c r="B55" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>154380</v>
       </c>
       <c r="B56" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>154381</v>
       </c>
       <c r="B57" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>154382</v>
       </c>
       <c r="B58" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>154383</v>
       </c>
       <c r="B59" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>154384</v>
       </c>
       <c r="B60" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>154385</v>
       </c>
       <c r="B61" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>154386</v>
       </c>
       <c r="B62" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>154387</v>
       </c>
       <c r="B63" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>154388</v>
       </c>
       <c r="B64" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>154389</v>
       </c>
       <c r="B65" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>154390</v>
       </c>
       <c r="B66" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>154391</v>
       </c>
       <c r="B67" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>154392</v>
       </c>
       <c r="B68" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>154393</v>
       </c>
       <c r="B69" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>154394</v>
       </c>
       <c r="B70" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>154395</v>
       </c>
       <c r="B71" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>154396</v>
       </c>
       <c r="B72" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>154397</v>
       </c>
       <c r="B73" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>154398</v>
       </c>
       <c r="B74" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>154399</v>
       </c>
       <c r="B75" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>154400</v>
       </c>
       <c r="B76" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>154401</v>
       </c>
       <c r="B77" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>154402</v>
       </c>
       <c r="B78" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>154403</v>
       </c>
       <c r="B79" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>154404</v>
       </c>
       <c r="B80" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>154405</v>
       </c>
       <c r="B81" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>154406</v>
       </c>
       <c r="B82" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>154407</v>
       </c>
       <c r="B83" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" s="2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>154408</v>
       </c>
       <c r="B84" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>154409</v>
       </c>
       <c r="B85" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>154410</v>
       </c>
       <c r="B86" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>154411</v>
       </c>
       <c r="B87" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>154412</v>
       </c>
       <c r="B88" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>154413</v>
       </c>
       <c r="B89" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>154414</v>
       </c>
       <c r="B90" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>154415</v>
       </c>
       <c r="B91" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>154416</v>
       </c>
       <c r="B92" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>154417</v>
       </c>
       <c r="B93" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>154418</v>
       </c>
       <c r="B94" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>154419</v>
       </c>
       <c r="B95" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>154420</v>
       </c>
       <c r="B96" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>154421</v>
       </c>
       <c r="B97" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>154422</v>
       </c>
       <c r="B98" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>154423</v>
       </c>
       <c r="B99" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>154424</v>
       </c>
       <c r="B100" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>154425</v>
       </c>
       <c r="B101" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>154426</v>
       </c>
       <c r="B102" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>154427</v>
       </c>
       <c r="B103" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>154428</v>
       </c>
       <c r="B104" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>154429</v>
       </c>
       <c r="B105" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>154430</v>
       </c>
       <c r="B106" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>154431</v>
       </c>
       <c r="B107" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>154432</v>
       </c>
       <c r="B108" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>154433</v>
       </c>
       <c r="B109" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>154434</v>
       </c>
       <c r="B110" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>154435</v>
       </c>
       <c r="B111" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>154436</v>
       </c>
       <c r="B112" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>154437</v>
       </c>
       <c r="B113" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>154438</v>
       </c>
       <c r="B114" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>154439</v>
       </c>
       <c r="B115" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>154440</v>
       </c>
       <c r="B116" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>154441</v>
       </c>
       <c r="B117" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>154442</v>
       </c>
       <c r="B118" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>154443</v>
       </c>
       <c r="B119" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>154444</v>
       </c>
       <c r="B120" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>154445</v>
       </c>
       <c r="B121" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>154446</v>
       </c>
       <c r="B122" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>154447</v>
       </c>
       <c r="B123" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>154448</v>
       </c>
       <c r="B124" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>154449</v>
       </c>
       <c r="B125" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>154450</v>
       </c>
       <c r="B126" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>154451</v>
       </c>
       <c r="B127" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>154452</v>
       </c>
       <c r="B128" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>154453</v>
       </c>
       <c r="B129" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>154454</v>
       </c>
       <c r="B130" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>154455</v>
       </c>
       <c r="B131" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" s="2">
+        <v>11111111111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>212002002</v>
       </c>
@@ -31221,7 +31615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>

--- a/WindowsFormsApp2/bin/x64/Debug/cSharpProje.xlsx
+++ b/WindowsFormsApp2/bin/x64/Debug/cSharpProje.xlsx
@@ -34477,10 +34477,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0" rightToLeft="false">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -34492,7 +34492,7 @@
     <col min="28" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" s="4" t="s">
         <v>632</v>
       </c>
@@ -34524,7 +34524,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" s="4" t="s">
         <v>632</v>
       </c>
@@ -34556,7 +34556,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3" s="4" t="s">
         <v>361</v>
       </c>
@@ -34588,7 +34588,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4" s="4" t="s">
         <v>358</v>
       </c>
@@ -34620,71 +34620,83 @@
         <v>651</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5" s="4" t="s">
         <v>359</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>364</v>
+        <v/>
       </c>
       <c r="C5" s="4" t="s">
-        <v>364</v>
+        <v/>
       </c>
       <c r="D5" s="4" t="s">
-        <v>364</v>
+        <v/>
       </c>
       <c r="E5" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>FİZİK</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>FİZİK</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>FİZİK</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>FİZİK</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>PROGRAMLAMA</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>PROGRAMLAMA</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>PROGRAMLAMA</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>PROGRAMLAMA</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G6" s="4" t="s"/>
+      <c r="H6" s="4" t="s"/>
+      <c r="I6" s="4" t="s"/>
+      <c r="J6" s="4" t="s"/>
+    </row>
+    <row spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
       <c r="A7" s="4" t="s">
         <v>362</v>
       </c>
@@ -34716,16 +34728,16 @@
         <v>365</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
       <c r="A10" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>

--- a/WindowsFormsApp2/bin/x64/Debug/cSharpProje.xlsx
+++ b/WindowsFormsApp2/bin/x64/Debug/cSharpProje.xlsx
@@ -31689,7 +31689,7 @@
         <v>154326</v>
       </c>
       <c r="B2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -31709,10 +31709,10 @@
         <v>154327</v>
       </c>
       <c r="B3" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4">
         <v>5</v>
@@ -31749,7 +31749,7 @@
         <v>154329</v>
       </c>
       <c r="B5" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -34491,10 +34491,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -34506,7 +34506,7 @@
     <col min="28" max="16384" width="14.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row spans="1:10" ht="23.35" customHeight="1" x14ac:dyDescent="0.3" outlineLevel="0" r="1">
       <c r="A1" s="4" t="s">
         <v>630</v>
       </c>
@@ -34538,7 +34538,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="23.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row spans="1:10" ht="23.35" customHeight="1" x14ac:dyDescent="0.3" outlineLevel="0" r="2">
       <c r="A2" s="4" t="s">
         <v>630</v>
       </c>
@@ -34570,7 +34570,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row spans="1:10" ht="20.350000000000001" customHeight="1" x14ac:dyDescent="0.3" outlineLevel="0" r="3">
       <c r="A3" s="4" t="s">
         <v>361</v>
       </c>
@@ -34602,7 +34602,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="23.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row spans="1:10" ht="23.35" customHeight="1" x14ac:dyDescent="0.3" outlineLevel="0" r="4">
       <c r="A4" s="4" t="s">
         <v>358</v>
       </c>
@@ -34634,27 +34634,38 @@
         <v>649</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="23.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row spans="1:10" ht="23.35" customHeight="1" x14ac:dyDescent="0.3" outlineLevel="0" r="5">
       <c r="A5" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="23.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="inlineStr"/>
+      <c r="F5" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>FİZİK</t>
+        </is>
+      </c>
+      <c r="H5" s="4" t="inlineStr">
+        <is>
+          <t>FİZİK</t>
+        </is>
+      </c>
+      <c r="I5" s="4" t="inlineStr">
+        <is>
+          <t>FİZİK</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>FİZİK</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:10" ht="23.35" customHeight="1" x14ac:dyDescent="0.3" outlineLevel="0" r="6">
       <c r="A6" s="4" t="s">
         <v>360</v>
       </c>
@@ -34674,7 +34685,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3" outlineLevel="0" r="7">
       <c r="A7" s="4" t="s">
         <v>362</v>
       </c>
@@ -34706,16 +34717,16 @@
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3" outlineLevel="0" r="8">
       <c r="A8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3" outlineLevel="0" r="9">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3" outlineLevel="0" r="10">
       <c r="A10" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3" outlineLevel="0" r="12">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
